--- a/CashFlow/RCL_cashflow.xlsx
+++ b/CashFlow/RCL_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>533000000.0</v>
+        <v>38967000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>592000000.0</v>
+        <v>27077000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>478107000.0</v>
+        <v>24782000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>336903000.0</v>
+        <v>15414000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>173833000.0</v>
+        <v>-19765000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-8533000.0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-992656000.0</v>
+        <v>1776000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-133815000.0</v>
+        <v>2849000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-129313000.0</v>
+        <v>2456993000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>175609000.0</v>
+        <v>2132211000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>966479000.0</v>
+        <v>1529137000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>92030000.0</v>
@@ -3791,16 +3791,16 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3048225000.0</v>
+        <v>3048609000.0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1431375000.0</v>
+        <v>1431759000.0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-100648000.0</v>
+        <v>-100264000.0</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-99461000.0</v>
+        <v>-99077000.0</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>-99439000.0</v>
